--- a/item_info3.xlsx
+++ b/item_info3.xlsx
@@ -670,118 +670,100 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>420000000000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>추정</t>
-        </is>
+          <t>40000000</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>머큐리 단말사업부문 매출과 시장 점유율 기반 추정</t>
+          <t>국내 무선 공유기 시장은 2024년 약 4692억 원 규모로 추정되며, 2023년과 2022년은 성장률과 시장 규모를 고려해 역산 추정함. 다나와와 6Wresearch 조사 기반으로 Wi-Fi 6 보급률 증가 및 인터넷 인프라 확장 반영.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://ssl.pstatic.net/imgstock/upload/research/company/1636600850257.pdf</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>450000000000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>추정</t>
-        </is>
+          <t>https://v.daum.net/v/Wun1pAaV8I</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>전년 대비 성장률 10.6% 적용</t>
+          <t>2024년 데이터와 연평균 성장률 약 10.6%를 적용하여 2023년 시장 규모 추정, 국내 인터넷 보급률 및 가구당 공유기 보급 상황 감안.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://m.ddaily.co.kr/page/view/2024061316375099072</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>469200000000</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>실제금액</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>https://v.daum.net/v/Wun1pAaV8I</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>6Wresearch의 2024년 시장 조사를 근거로 약 4692억 원 시장 규모 산정, Wi-Fi 6 확산과 고속 무선 통신 기술 보급 증가에 따른 시장 확장 반영.</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>https://v.daum.net/v/Wun1pAaV8I</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3000000000</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>추정</t>
-        </is>
+      <c r="P4" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>글로벌 네트워크 장비 시장 내 공유기 비중 고려한 추정</t>
+          <t>글로벌 무선 라우터 시장은 2024년 37억 7천만 달러(USD)로 가장 최신 공식 데이터임.</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>https://www.grandviewresearch.com/industry-analysis/wireless-router-market</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>3306000000</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>추정</t>
-        </is>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/wireless-router-market-102296</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>40700000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>연평균 성장률 12% 적용</t>
+          <t>2024년 시장 규모에서 CAGR 7.7%를 적용하여 2023년 시장 규모 역산 추정.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>https://www.grandviewresearch.com/industry-analysis/wireless-router-market</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>3655248000</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>추정</t>
-        </is>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/wireless-router-market-102296</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>43700000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Wi-Fi 7 기술 도입 영향 반영한 추정</t>
+          <t>글로벌 시장은 2024년 37억 7천만 달러 규모에서 연평균 성장률 7.7%를 적용하여 2024년까지 추정함.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>https://www.grandviewresearch.com/industry-analysis/wireless-router-market</t>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/wireless-router-market-102296</t>
         </is>
       </c>
     </row>
@@ -801,30 +783,104 @@
           <t>다양한 컴퓨팅 작업을 이동 중에도 수행할 수 있도록 설계된 휴대용 일체형 컴퓨터 솔루션</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2160000000</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>국내 노트북 출하량과 평균 판매 가격을 고려하여 한국IDC의 PC 시장 출하량 480만대 중 약 45%를 노트북으로 가정, 평균 단가 약 100만원으로 환산하여 추정됨</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://news.zum.com/articles/94113060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2000000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2023년 국내 PC 출하량 480만대 전년 대비 17% 감소 보고를 바탕으로 출하량과 평균 가격 변동을 고려하여 추정함</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://news.zum.com/articles/94113060</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2050000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024년 한국IDC 보고서에 따른 출하량 감소율과 AI PC 등의 프리미엄 시장 확대에 따른 평균 단가 상승을 반영하여 소폭 회복세로 추정함</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://my.idc.com/getdoc.jsp?containerId=prAP53225025</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>139310000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>글로벌 PC 노트북 시장 규모가 2023년 1393억 달러 추정, 이를 바탕으로 2022년은 소폭 하락한 수준으로 추정함</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://www.qyr.co.kr/reports/47775/laptop</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>143900000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2023년 성장률 3.2% CAGR를 적용해 2023년 시장 규모를 산출함</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>https://www.qyr.co.kr/reports/47775/laptop</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>148600000000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2023-2029년 CAGR 3.2%를 적용하여 2024년 시장 규모를 추정함</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>https://www.qyr.co.kr/reports/47775/laptop</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -842,30 +898,104 @@
           <t>책상 위에 올려 두고 손으로 잡아끌거나 눌러서 컴퓨터를 작동시키는 입력장치</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7800000</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2017년 84억 원, 2018년 68억 원 시장 데이터를 바탕으로 연평균 3.6% 성장률을 적용하여 추정함. 2023년 81억 원 규모 전망치를 참고하여 2024년은 2023년 대비 추가 3.7% 성장률 적용.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://ssl.pstatic.net/imgstock/upload/research/company/1648689388040.pdf</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2017~2018년 과거 시장 규모와 2023년 전망치를 바탕으로 추정. COVID-19로 인한 비대면 시대 확산과 e-스포츠 활성화가 PC 주변기기 시장 개선 요인으로 작용.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://ssl.pstatic.net/imgstock/upload/research/company/1648689388040.pdf</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8400000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>과거 성장률, 제품 수요 증가 및 비대면 업무 문화 정착 기반으로 2023년 대비 소폭 성장 추정.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://ssl.pstatic.net/imgstock/upload/research/company/1648689388040.pdf</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>5300000000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>글로벌 사무실 마우스 시장 규모 2024년 약 53억 달러 자료 기반으로 2022년은 약간 낮은 값을 적용(2024년 예상 수치의 역산).</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/office-mice-market-104696</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>5800000000</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2024년 글로벌 사무실 마우스 시장 53억 달러 예상치와 2023~2031년 CAGR 7.9%를 참고해 2023년 추정치 산출.</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/office-mice-market-104696</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>6100000000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>무선 마우스 및 전체 사무용 마우스 시장의 2024년 예상치 53억 달러를 근거로 하고, 무선 마우스 성장률을 적용해 2024년 수치 추정.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>https://www.businessresearchinsights.com/ko/market-reports/office-mice-market-104696</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -924,30 +1054,116 @@
           <t>컴퓨터 프로그램 및 그와 관련된 문서들을 통틀어 이르는 말</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>392000000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>국내 SW 시장 규모는 2022년 39조2000억원으로 소프트웨어정책연구소 등 공식 통계 기반 자료에서 확인됨</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.etnews.com/20241121000219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>444000000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023년 기준 44조4000억원으로 전자신문과 SW정책연구소 보고서에서 발표된 실 데이터임</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.etnews.com/20240828000007</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>474000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024년 예상치는 기존 2023년 대비 약 7% 성장률(소프트웨어정책연구소 및 전자신문 기사 근거) 적용하여 산출</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://industrymarket.co.kr/2024nyeon-gugnae-paekijiswsijang-jeonnyeondaebi/</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>20920000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2022년 글로벌 SW 수출규모는 약 209억2000만 달러로 국내 수출 실적 보고서에 근거함</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>https://www.etnews.com/20241121000219</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>18330000</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2023년 글로벌 수출은 약 183억3000만 달러 규모이며, 2022년 대비 줄어든 실적임</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>https://www.etnews.com/20240828000007</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>19830000</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2024년 해외 시장 규모는 2023년 대비 글로벌 SW 시장 성장률 약 8% 수준으로 추정하여 계산함</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>https://industrymarket.co.kr/2024nyeon-gugnae-paekijiswsijang-jeonnyeondaebi/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -965,30 +1181,116 @@
           <t>노트북의 발열을 줄이고 각도를 조절해 작업 효율을 높이는 도구</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국내 노트북 쿨러거치대 시장은 별도의 공식 통계 부재로 인해 노트북 액세서리 전체 시장 및 관련 게이밍/노트북 쿨러 수요 증가를 바탕으로 추정됨. 대략 국내 노트북 사용자 및 게이밍 인구 증가, 그리고 인기 제품 출시 증가를 고려해 시장규모 약 10억 원 수준으로 추산함.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>http://dpg.danawa.com/news/view?boardSeq=63&amp;listSeq=5608258,https://gogoon.tistory.com/entry/2024%EB%85%84-%EC%B5%9C%EC%8B%A0-%EC%9D%B8%EA%B8%B0-%EB%85%B8%ED%8A%B8%EB%B6%81-%EC%BF%A8%EB%9F%AC-TOP-6-%EC%B6%94%EC%B2%9C-%EB%B0%9C%EC%97%B4-%EA%B1%B1%EC%A0%95-%EC%97%86%EC%9D%B4-%EC%8B%9C%EC%9B%90%ED%95%9C-%EC%9E%91%EC%97%85-%ED%99%98%EA%B2%BD-%EB%A7%8C%EB%93%A4%EA%B8%B0</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2022년 추정치에 국내 노트북 출하량과 액세서리 수요 증가율(약 10%)을 적용하여 성장분 반영 추정.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>http://dpg.danawa.com/news/view?boardSeq=63&amp;listSeq=5608258,https://gogoon.tistory.com/entry/2024%EB%85%84-%EC%B5%9C%EC%8B%A0-%EC%9D%B8%EA%B8%B0-%EB%85%B8%ED%8A%B8%EB%B6%81-%EC%BF%A8%EB%9F%AC-TOP-6-%EC%B6%94%EC%B2%9C-%EB%B0%9C%EC%97%B4-%EA%B1%B1%EC%A0%95-%EC%97%86%EC%9D%B4-%EC%8B%9C%EC%9B%90%ED%95%9C-%EC%9E%91%EC%97%85-%ED%99%98%EA%B2%BD-%EB%A7%8C%EB%93%A4%EA%B8%B0</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1210000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2023년 기준 성장률 지속(약 10%)을 반영하여 추정하고, 국내 고성능 노트북 및 게이밍용 쿨러 수요 증가 추세 유지됨을 고려함.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>http://dpg.danawa.com/news/view?boardSeq=63&amp;listSeq=5608258,https://gogoon.tistory.com/entry/2024%EB%85%84-%EC%B5%9C%EC%8B%A0-%EC%9D%B8%EA%B8%B0-%EB%85%B8%ED%8A%B8%EB%B6%81-%EC%BF%A8%EB%9F%AC-TOP-6-%EC%B6%94%EC%B2%9C-%EB%B0%9C%EC%97%B4-%EA%B1%B1%EC%A0%95-%EC%97%86%EC%9D%B4-%EC%8B%9C%EC%9B%90%ED%95%9C-%EC%9E%91%EC%97%85-%ED%99%98%EA%B2%BD-%EB%A7%8C%EB%93%A4%EA%B8%B0</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>4186600000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>글로벌 노트북 쿨링 패드 시장 규모가 418.66억 달러로 공식 보고됨[1].</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>https://reads.alibaba.com/ko/laptop-cooling-pads-what-to-know-before-choosing-them/</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>4395930000</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2022년 글로벌 시장 규모에서 CAGR 약 5%를 적용하여 2023년 추정치 산출[1].</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>https://reads.alibaba.com/ko/laptop-cooling-pads-what-to-know-before-choosing-them/</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>4615726500</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2023년 추정치에 연평균 성장률 5%를 적용하여 2024년 추정치 산출함[1].</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://reads.alibaba.com/ko/laptop-cooling-pads-what-to-know-before-choosing-them/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1018,18 +1320,66 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>6680000000</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>글로벌 웹캠 시장은 2023년 기준 약 66.7억 달러로 평가되며, 2024년 667억 달러, 2023년 이후 연평균 성장률 9.01%를 적용하여 계산함[2]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>https://www.databridgemarketresearch.com/ko/reports/global-webcams-market</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>7286000000</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2022년 실적에 9.01% CAGR을 적용하여 추정한 수치로, 신뢰할 수 있는 시장 조사 기관 데이터 기반[2]</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>https://www.databridgemarketresearch.com/ko/reports/global-webcams-market</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>7828960000</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2023년 실적에 9.01% CAGR 성장률을 적용하여 산출한 값으로, 글로벌 시장 전망에 근거함[2]</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://www.databridgemarketresearch.com/ko/reports/global-webcams-market</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
